--- a/arsel/data_ar/EditForm/EditForm_Data_Log.xlsx
+++ b/arsel/data_ar/EditForm/EditForm_Data_Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATION\rpsel\data_ar\EditForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\workspace\arauto\arsel\data_ar\EditForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3788,7 +3788,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3921,7 +3921,7 @@
         <v>111</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>5</v>
@@ -3941,7 +3941,7 @@
         <v>111</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>5</v>
@@ -3966,7 +3966,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4057,7 +4057,7 @@
         <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L4" t="s">
         <v>5</v>
